--- a/Datos Sorts.xlsx
+++ b/Datos Sorts.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Desordenados" sheetId="1" r:id="rId1"/>
+    <sheet name="Ordenados" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Datos</t>
   </si>
@@ -322,7 +322,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$2</c:f>
+              <c:f>Desordenados!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -336,7 +336,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$10</c:f>
+              <c:f>Desordenados!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -369,7 +369,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$10</c:f>
+              <c:f>Desordenados!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -407,7 +407,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$2</c:f>
+              <c:f>Desordenados!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -421,7 +421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$10</c:f>
+              <c:f>Desordenados!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -454,7 +454,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$10</c:f>
+              <c:f>Desordenados!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -492,7 +492,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$2</c:f>
+              <c:f>Desordenados!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -506,7 +506,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$10</c:f>
+              <c:f>Desordenados!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -539,7 +539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$10</c:f>
+              <c:f>Desordenados!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -577,7 +577,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$2</c:f>
+              <c:f>Desordenados!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -591,7 +591,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$10</c:f>
+              <c:f>Desordenados!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -624,7 +624,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$F$3:$F$10</c:f>
+              <c:f>Desordenados!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -665,11 +665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97641600"/>
-        <c:axId val="97639808"/>
+        <c:axId val="120013184"/>
+        <c:axId val="120014720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97641600"/>
+        <c:axId val="120013184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,12 +679,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97639808"/>
+        <c:crossAx val="120014720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97639808"/>
+        <c:axId val="120014720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97641600"/>
+        <c:crossAx val="120013184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -723,14 +723,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,12 +1211,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>500</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>750</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>1250</v>
+      </c>
+      <c r="C7" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="F7" s="12">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>1750</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="F9" s="12">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="13">
+        <v>56.4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E10" s="14">
+        <v>31.6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>22.7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
